--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sectm1a</t>
+  </si>
+  <si>
+    <t>Cd7</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sectm1a</t>
-  </si>
-  <si>
-    <t>Cd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.302204</v>
+        <v>0.124553</v>
       </c>
       <c r="H2">
-        <v>0.9066120000000001</v>
+        <v>0.373659</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.389254</v>
+        <v>0.5011856666666666</v>
       </c>
       <c r="N2">
-        <v>1.167762</v>
+        <v>1.503557</v>
       </c>
       <c r="O2">
-        <v>0.1856147245364329</v>
+        <v>0.5449482835232878</v>
       </c>
       <c r="P2">
-        <v>0.1856147245364329</v>
+        <v>0.5449482835232877</v>
       </c>
       <c r="Q2">
-        <v>0.117634115816</v>
+        <v>0.06242417834033333</v>
       </c>
       <c r="R2">
-        <v>1.058707042344</v>
+        <v>0.561817605063</v>
       </c>
       <c r="S2">
-        <v>0.1856147245364329</v>
+        <v>0.5449482835232878</v>
       </c>
       <c r="T2">
-        <v>0.1856147245364329</v>
+        <v>0.5449482835232877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,114 +590,52 @@
         <v>24</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.124553</v>
+      </c>
+      <c r="H3">
+        <v>0.373659</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.302204</v>
-      </c>
-      <c r="H3">
-        <v>0.9066120000000001</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.5011856666666666</v>
+        <v>0.4185083333333333</v>
       </c>
       <c r="N3">
-        <v>1.503557</v>
+        <v>1.255525</v>
       </c>
       <c r="O3">
-        <v>0.2389890391876301</v>
+        <v>0.4550517164767122</v>
       </c>
       <c r="P3">
-        <v>0.2389890391876302</v>
+        <v>0.4550517164767122</v>
       </c>
       <c r="Q3">
-        <v>0.1514603132093333</v>
+        <v>0.05212646844166667</v>
       </c>
       <c r="R3">
-        <v>1.363142818884</v>
+        <v>0.4691382159750001</v>
       </c>
       <c r="S3">
-        <v>0.2389890391876301</v>
+        <v>0.4550517164767122</v>
       </c>
       <c r="T3">
-        <v>0.2389890391876302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.302204</v>
-      </c>
-      <c r="H4">
-        <v>0.9066120000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>1.206667666666667</v>
-      </c>
-      <c r="N4">
-        <v>3.620003</v>
-      </c>
-      <c r="O4">
-        <v>0.5753962362759368</v>
-      </c>
-      <c r="P4">
-        <v>0.5753962362759368</v>
-      </c>
-      <c r="Q4">
-        <v>0.3646597955373334</v>
-      </c>
-      <c r="R4">
-        <v>3.281938159836</v>
-      </c>
-      <c r="S4">
-        <v>0.5753962362759368</v>
-      </c>
-      <c r="T4">
-        <v>0.5753962362759368</v>
+        <v>0.4550517164767122</v>
       </c>
     </row>
   </sheetData>
